--- a/biology/Botanique/Palmiste_marron/Palmiste_marron.xlsx
+++ b/biology/Botanique/Palmiste_marron/Palmiste_marron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyophorbe verschaffeltii, Palmiste marron en français, est une espèce de palmiers de la famille des Arecaceae. Cette espèce endémique de Rodrigues a été décrite par le botaniste allemand Hermann Wendland en 1866. En 1998, elle a été déclarée comme étant en danger d'extinction par l'UICN[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyophorbe verschaffeltii, Palmiste marron en français, est une espèce de palmiers de la famille des Arecaceae. Cette espèce endémique de Rodrigues a été décrite par le botaniste allemand Hermann Wendland en 1866. En 1998, elle a été déclarée comme étant en danger d'extinction par l'UICN.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nom scientifique valide : Hyophorbe verschaffeltii  H. Wendl.[2]
-Nom vulgaire (vulgarisation scientifique) recommandé ou typique en français : Palmiste marron[1]
-Noms vernaculaires (langage courant), pouvant désigner éventuellement d'autres espèces : Palmier fusain[3], palmier bouteille ou arbre bouteille[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nom scientifique valide : Hyophorbe verschaffeltii  H. Wendl.
+Nom vulgaire (vulgarisation scientifique) recommandé ou typique en français : Palmiste marron
+Noms vernaculaires (langage courant), pouvant désigner éventuellement d'autres espèces : Palmier fusain, palmier bouteille ou arbre bouteille.</t>
         </is>
       </c>
     </row>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,10 +585,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est endémique de l'île Rodrigues (république de Maurice). 
-Il est menacé par la destruction de son environnement [5] et il ne reste qu'une cinquantaine de sujets à l'état sauvage, mais il est cultivé à l'état ornemental dans différents endroits tropicaux ou semi-tropicaux de la planète. Il ne supporte pas les températures en dessous de 0 °C.
+Il est menacé par la destruction de son environnement  et il ne reste qu'une cinquantaine de sujets à l'état sauvage, mais il est cultivé à l'état ornemental dans différents endroits tropicaux ou semi-tropicaux de la planète. Il ne supporte pas les températures en dessous de 0 °C.
 </t>
         </is>
       </c>
@@ -601,7 +619,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été nommé ainsi par le botaniste allemand Hermann Wendland en l'honneur d'Ambroise Verschaffelt.
 </t>
